--- a/Section 1.4 loglog plot.xlsx
+++ b/Section 1.4 loglog plot.xlsx
@@ -1,64 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47504b6bbab3b872/!Work/!!Classes/!Algorithms/Java Code/Fall 2022/WBU-Algs22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklins\Documents\GitHub\WBU-Algs22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{4C42DD40-6360-4B62-998D-266D9A755B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEF00D5A-F43D-45E3-BFEB-4B5566281606}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2EA585-673A-4F54-86EB-9D41D544BD72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="2925" windowWidth="20625" windowHeight="15435" xr2:uid="{CB74B23E-12F6-4110-A45A-A0B43EA68548}"/>
+    <workbookView xWindow="16875" yWindow="2925" windowWidth="20625" windowHeight="15435" activeTab="2" xr2:uid="{CB74B23E-12F6-4110-A45A-A0B43EA68548}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FromBook" sheetId="1" r:id="rId1"/>
+    <sheet name="InClass" sheetId="2" r:id="rId2"/>
+    <sheet name="Doubling Hyp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>N</t>
   </si>
@@ -82,6 +51,51 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>log(t)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c </t>
+  </si>
+  <si>
+    <t>&lt;-Predict</t>
+  </si>
+  <si>
+    <t>&lt;- 2^c</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>&lt;- b3/b2</t>
+  </si>
+  <si>
+    <t>&lt;- b4/b3</t>
+  </si>
+  <si>
+    <t>&lt;- guess what it converged to</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
 </sst>
 </file>
@@ -187,31 +201,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Log-log plot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -252,7 +241,334 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FromBook!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FromBook!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6756-4562-8DB8-ADBECA744D53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="805137600"/>
+        <c:axId val="888441472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="805137600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="888441472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="888441472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="805137600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -318,7 +634,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:f>FromBook!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -339,7 +655,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$7</c:f>
+              <c:f>FromBook!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -361,7 +677,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8544-43F5-B667-4A3FCC74BC26}"/>
+              <c16:uniqueId val="{00000000-229D-495C-882D-DEE2C0F82062}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -373,14 +689,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="725186240"/>
-        <c:axId val="725191232"/>
+        <c:axId val="797561312"/>
+        <c:axId val="805822640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="725186240"/>
+        <c:axId val="797561312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -435,12 +750,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725191232"/>
-        <c:crossesAt val="-4"/>
+        <c:crossAx val="805822640"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="725191232"/>
+        <c:axId val="805822640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +812,372 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725186240"/>
+        <c:crossAx val="797561312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41782633420822402"/>
+          <c:y val="6.0185185185185182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5800496037601531E-2"/>
+                  <c:y val="5.0509259259259261E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>InClass!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.965784284662087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.965784284662087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.965784284662087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>InClass!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1.816037165157405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1538053360790355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1412692849461337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-414D-4D17-A086-14CACF691452}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="798512976"/>
+        <c:axId val="899640496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="798512976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="899640496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="899640496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798512976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -593,6 +1273,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1109,27 +1869,1136 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577412</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>54523</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130558</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EE3966-62D8-47DF-9409-C0E2507F140C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>235148</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
+      <xdr:colOff>229195</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>23218</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31BB66E-C54E-4BAD-A930-E1AC5043BC57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140369</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>162427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431132</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48127</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4120ECB-B30E-8363-9F22-3FE67139F6DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C2072E-E26B-4EED-947C-111B4F28054E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,19 +3316,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B28478-7F06-408F-ABA9-5D3FCE603E66}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +3344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>250</v>
       </c>
@@ -1482,15 +3352,15 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:E3" si="0">LOG(A2,2)</f>
+        <f>LOG(A2,2)</f>
         <v>7.965784284662087</v>
       </c>
       <c r="E2" t="e">
-        <f t="shared" si="0"/>
+        <f>LOG(B2,2)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1498,21 +3368,24 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D8" si="0">LOG(A3,2)</f>
         <v>8.965784284662087</v>
       </c>
       <c r="E3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E8" si="1">LOG(B3,2)</f>
         <v>#NUM!</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -1520,22 +3393,25 @@
         <v>0.1</v>
       </c>
       <c r="D4">
-        <f>LOG(A4,2)</f>
+        <f t="shared" si="0"/>
         <v>9.965784284662087</v>
       </c>
       <c r="E4">
-        <f>LOG(B4,2)</f>
+        <f t="shared" si="1"/>
         <v>-3.3219280948873622</v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4:G4">LINEST(E5:E7,D5:D7,TRUE)</f>
-        <v>2.9985897404688111</v>
+      <c r="F4">
+        <v>2.9992000000000001</v>
       </c>
       <c r="G4">
-        <v>-33.203346260558824</v>
+        <v>-33.21</v>
+      </c>
+      <c r="H4">
+        <f>2^G4</f>
+        <v>1.0064538001407226E-10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -1543,15 +3419,15 @@
         <v>0.8</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D7" si="1">LOG(A5,2)</f>
+        <f t="shared" si="0"/>
         <v>10.965784284662087</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E7" si="2">LOG(B5,2)</f>
+        <f t="shared" si="1"/>
         <v>-0.32192809488736229</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -1559,15 +3435,15 @@
         <v>6.4</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>11.965784284662087</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>11.965784284662087</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
         <v>2.6780719051126378</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8000</v>
       </c>
@@ -1575,20 +3451,24 @@
         <v>51.1</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>12.965784284662087</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>12.965784284662087</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
         <v>5.6752513860502596</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16000</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>13.965784284662087</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,8 +3476,8 @@
         <v>16000</v>
       </c>
       <c r="B26">
-        <f>2^G4 * A26^F4</f>
-        <v>408.53368070638294</v>
+        <f>H4 * A26^F4</f>
+        <v>409.0632796594586</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1608,4 +3488,250 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1E58F4-BED3-4A97-9EA7-8B0FDC1F5BD7}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>2.9786999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D2">
+        <f>LOG(A2,2)</f>
+        <v>9.965784284662087</v>
+      </c>
+      <c r="E2">
+        <f>LOG(B2,2)</f>
+        <v>-1.816037165157405</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>-31.504000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="0">LOG(A3,2)</f>
+        <v>10.965784284662087</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="1">LOG(B3,2)</f>
+        <v>1.1538053360790355</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f>2^H2</f>
+        <v>3.2836058188332016E-10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4000</v>
+      </c>
+      <c r="B4">
+        <v>17.646000000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>11.965784284662087</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>4.1412692849461337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8000</v>
+      </c>
+      <c r="B5">
+        <f>H3*A5^H1</f>
+        <v>138.83058729359547</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000000</v>
+      </c>
+      <c r="B6">
+        <f>H3*A6^H1</f>
+        <v>244653265.35268244</v>
+      </c>
+      <c r="C6">
+        <f>B6/60/60</f>
+        <v>67959.240375745125</v>
+      </c>
+      <c r="D6">
+        <f>C6/24</f>
+        <v>2831.635015656047</v>
+      </c>
+      <c r="E6">
+        <f>D6/365</f>
+        <v>7.7579041524823209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ABB256-9F21-4EAE-AB3B-77B1730EA67E}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="C3">
+        <f>B3/B2</f>
+        <v>7.8345070422535219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4000</v>
+      </c>
+      <c r="B4">
+        <v>17.646000000000001</v>
+      </c>
+      <c r="C4">
+        <f>B4/B3</f>
+        <v>7.9307865168539324</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8000</v>
+      </c>
+      <c r="B5">
+        <f>B4*8</f>
+        <v>141.16800000000001</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16000</v>
+      </c>
+      <c r="B6">
+        <f>B5*8</f>
+        <v>1129.3440000000001</v>
+      </c>
+      <c r="C6">
+        <f>B6/60</f>
+        <v>18.822400000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Section 1.4 loglog plot.xlsx
+++ b/Section 1.4 loglog plot.xlsx
@@ -1,33 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklins\Documents\GitHub\WBU-Algs22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47504b6bbab3b872/!Work/!!Classes/!Algorithms/Java Code/Fall 2022/WBU-Algs22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2EA585-673A-4F54-86EB-9D41D544BD72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{8C2EA585-673A-4F54-86EB-9D41D544BD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CD5BE30-B8B1-46C5-B3D2-DE4C8A70EB5D}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="2925" windowWidth="20625" windowHeight="15435" activeTab="2" xr2:uid="{CB74B23E-12F6-4110-A45A-A0B43EA68548}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CB74B23E-12F6-4110-A45A-A0B43EA68548}"/>
   </bookViews>
   <sheets>
     <sheet name="FromBook" sheetId="1" r:id="rId1"/>
     <sheet name="InClass" sheetId="2" r:id="rId2"/>
     <sheet name="Doubling Hyp" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>N</t>
   </si>
@@ -97,11 +110,17 @@
   <si>
     <t>minutes</t>
   </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,11 +173,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +216,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2983,15 +3039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>140369</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>162427</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>431132</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>48127</xdr:rowOff>
+      <xdr:colOff>671763</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>143376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3318,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B28478-7F06-408F-ABA9-5D3FCE603E66}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,7 +3428,7 @@
         <v>8.965784284662087</v>
       </c>
       <c r="E3" t="e">
-        <f t="shared" ref="E3:E8" si="1">LOG(B3,2)</f>
+        <f t="shared" ref="E3:E7" si="1">LOG(B3,2)</f>
         <v>#NUM!</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3495,7 +3551,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ABB256-9F21-4EAE-AB3B-77B1730EA67E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3734,4 +3790,462 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3929FE-118C-45D9-A626-8FB4E388523C}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5*2</f>
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <f>B5*8</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ref="A7:A13" si="0">A6*2</f>
+        <v>16000</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B13" si="1">B6*8</f>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>6912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>55296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>442368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>256000</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>3538944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>512000</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>28311552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1024000</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>226492416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32829009-D01F-42BB-B161-BD5F39A6931F}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>250</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="D2">
+        <v>2.35</v>
+      </c>
+      <c r="E2">
+        <f>2^D2</f>
+        <v>5.0982425092770489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>500</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B2*E2</f>
+        <v>6.3473119240499267</v>
+      </c>
+      <c r="D3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="0">2^D3</f>
+        <v>5.4641610270175818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" ref="B4:B14" si="1">B3*E3</f>
+        <v>34.682734441717592</v>
+      </c>
+      <c r="D4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.6177795029519899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="1"/>
+        <v>194.83995465300811</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4000</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="1"/>
+        <v>1102.1812254497715</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>8000</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="1"/>
+        <v>6234.8785488962594</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>16000</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="1"/>
+        <v>35269.799214392689</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D22" si="2">D7</f>
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>A8*2</f>
+        <v>32000</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="1"/>
+        <v>199516.1135646803</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" ref="A10:A14" si="3">A9*2</f>
+        <v>64000</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="1"/>
+        <v>1128633.5748605661</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="3"/>
+        <v>128000</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="1"/>
+        <v>6384515.6340697696</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="3"/>
+        <v>256000</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="1"/>
+        <v>36116274.395538114</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>A12*2</f>
+        <v>512000</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="1"/>
+        <v>204304500.29023263</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f t="shared" si="3"/>
+        <v>1024000</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="1"/>
+        <v>1155720780.6572196</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>5.6568542494923806</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>